--- a/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartProcess.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartProcess.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D91996-6132-FB40-AB26-97AE26C2CDE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFF3416-BE00-3646-9A01-DF8C1C0C6DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12100" yWindow="4820" windowWidth="32760" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5640" yWindow="4820" windowWidth="32760" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartProcessConfig" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
@@ -522,13 +522,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="B4" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>0</v>
+        <v>40001</v>
       </c>
       <c r="E4" s="1"/>
     </row>

--- a/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartProcess.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartProcess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFF3416-BE00-3646-9A01-DF8C1C0C6DBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63773A5-7F70-8249-A9E8-AE236C18D26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5640" yWindow="4820" windowWidth="32760" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>

--- a/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartProcess.xlsx
+++ b/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/StartProcess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.startconfig/Luban/Localhost/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63773A5-7F70-8249-A9E8-AE236C18D26A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DFF8EFF-0136-1D4E-A6EF-C99041BC85C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5640" yWindow="4820" windowWidth="32760" windowHeight="15440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>##var</t>
   </si>
@@ -68,6 +68,22 @@
   </si>
   <si>
     <t>内网端口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>名字</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Localhost</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -455,21 +471,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="21.1640625" style="1" customWidth="1"/>
     <col min="2" max="4" width="12.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="5" max="6" width="14.33203125" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +501,11 @@
       <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -502,8 +521,11 @@
       <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -519,8 +541,11 @@
       <c r="E3" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -531,18 +556,23 @@
         <v>40001</v>
       </c>
       <c r="E4" s="1"/>
+      <c r="F4" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:6">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
